--- a/Protected Areas/03_Spreadsheet/moldova_protected_areas_v4.xlsx
+++ b/Protected Areas/03_Spreadsheet/moldova_protected_areas_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#Git\Data-Analysis-Portfolio\Protected Areas\03_Spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D38DBA1-878F-406B-AF43-695971C9B0DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8885E8-7A71-48E1-BDC6-E2DE3C7F8C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-1392" windowWidth="30936" windowHeight="17496" tabRatio="841" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26880" yWindow="2556" windowWidth="23040" windowHeight="12660" tabRatio="841" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annex1" sheetId="1" r:id="rId1"/>
@@ -12410,7 +12410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -13789,7 +13789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B36DADA-00ED-4DAB-82E0-93CD3450B4E4}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -27790,7 +27790,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -27873,7 +27873,7 @@
         <v>28.810787000000001</v>
       </c>
       <c r="K2" s="90">
-        <v>46.032516000000001</v>
+        <v>47.032516000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="41.4" x14ac:dyDescent="0.3">
